--- a/Assets/medicijnenoverzicht.xlsx
+++ b/Assets/medicijnenoverzicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF335EC-7709-425F-A086-CAD304193556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E70A1E-99FF-400E-9931-4E033188B8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{02F7379D-9181-D74E-95CA-175CD6679578}"/>
   </bookViews>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D42448B-FEFA-014D-A93D-D8BD61CE4967}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -594,392 +594,833 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2">
+        <v>182627837</v>
+      </c>
+      <c r="D2">
+        <v>1.99</v>
+      </c>
       <c r="E2">
         <v>1000</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
+      <c r="C3">
+        <v>26232269</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
       <c r="E3">
         <v>250</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
+      <c r="C4">
+        <v>65331161</v>
+      </c>
+      <c r="D4">
+        <v>2.0099999999999998</v>
+      </c>
       <c r="E4">
         <v>90</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
+      <c r="C5">
+        <v>104430053</v>
+      </c>
+      <c r="D5">
+        <v>2.02</v>
+      </c>
       <c r="E5">
         <v>12</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
+      <c r="C6">
+        <v>143528945</v>
+      </c>
+      <c r="D6">
+        <v>2.0299999999999998</v>
+      </c>
       <c r="E6">
         <v>45</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>182627837</v>
+      </c>
+      <c r="D7">
+        <v>2.04</v>
+      </c>
       <c r="E7">
         <v>55</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>221726729</v>
+      </c>
+      <c r="D8">
+        <v>2.0499999999999998</v>
+      </c>
       <c r="E8">
         <v>12</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>260825621</v>
+      </c>
+      <c r="D9">
+        <v>2.06</v>
+      </c>
       <c r="E9">
         <v>65</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>299924513</v>
+      </c>
+      <c r="D10">
+        <v>2.0699999999999998</v>
+      </c>
       <c r="E10">
         <v>88</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>339023405</v>
+      </c>
+      <c r="D11">
+        <v>2.08</v>
+      </c>
       <c r="E11">
         <v>77</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>378122297</v>
+      </c>
+      <c r="D12">
+        <v>2.09</v>
+      </c>
       <c r="E12">
         <v>37</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>417221189</v>
+      </c>
+      <c r="D13">
+        <v>2.1</v>
+      </c>
       <c r="E13">
         <v>9</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>456320081</v>
+      </c>
+      <c r="D14">
+        <v>2.11</v>
+      </c>
       <c r="E14">
         <v>12</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>495418973</v>
+      </c>
+      <c r="D15">
+        <v>2.12</v>
+      </c>
       <c r="E15">
         <v>54</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>14</v>
       </c>
+      <c r="C16">
+        <v>534517865</v>
+      </c>
+      <c r="D16">
+        <v>2.13</v>
+      </c>
       <c r="E16">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>15</v>
       </c>
+      <c r="C17">
+        <v>573616757</v>
+      </c>
+      <c r="D17">
+        <v>2.14</v>
+      </c>
       <c r="E17">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>16</v>
       </c>
+      <c r="C18">
+        <v>612715649</v>
+      </c>
+      <c r="D18">
+        <v>2.15</v>
+      </c>
       <c r="E18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>17</v>
       </c>
+      <c r="C19">
+        <v>651814541</v>
+      </c>
+      <c r="D19">
+        <v>2.16</v>
+      </c>
       <c r="E19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>18</v>
       </c>
+      <c r="C20">
+        <v>690913433</v>
+      </c>
+      <c r="D20">
+        <v>2.17</v>
+      </c>
       <c r="E20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>19</v>
       </c>
+      <c r="C21">
+        <v>730012325</v>
+      </c>
+      <c r="D21">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="E21">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>20</v>
       </c>
+      <c r="C22">
+        <v>769111217</v>
+      </c>
+      <c r="D22">
+        <v>2.19</v>
+      </c>
       <c r="E22">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>21</v>
       </c>
+      <c r="C23">
+        <v>808210109</v>
+      </c>
+      <c r="D23">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="E23">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>22</v>
       </c>
+      <c r="C24">
+        <v>847309001</v>
+      </c>
+      <c r="D24">
+        <v>2.21</v>
+      </c>
       <c r="E24">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>23</v>
       </c>
+      <c r="C25">
+        <v>886407893</v>
+      </c>
+      <c r="D25">
+        <v>2.2200000000000002</v>
+      </c>
       <c r="E25">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>24</v>
       </c>
+      <c r="C26">
+        <v>925506785</v>
+      </c>
+      <c r="D26">
+        <v>2.23</v>
+      </c>
       <c r="E26">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>25</v>
       </c>
+      <c r="C27">
+        <v>964605677</v>
+      </c>
+      <c r="D27">
+        <v>2.2400000000000002</v>
+      </c>
       <c r="E27">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>26</v>
       </c>
+      <c r="C28">
+        <v>1003704569</v>
+      </c>
+      <c r="D28">
+        <v>2.25</v>
+      </c>
       <c r="E28">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>27</v>
       </c>
+      <c r="C29">
+        <v>1042803461</v>
+      </c>
+      <c r="D29">
+        <v>2.2599999999999998</v>
+      </c>
       <c r="E29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>28</v>
       </c>
+      <c r="C30">
+        <v>1081902353</v>
+      </c>
+      <c r="D30">
+        <v>2.27</v>
+      </c>
       <c r="E30">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>29</v>
       </c>
+      <c r="C31">
+        <v>1121001245</v>
+      </c>
+      <c r="D31">
+        <v>2.2799999999999998</v>
+      </c>
       <c r="E31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>30</v>
       </c>
+      <c r="C32">
+        <v>1160100137</v>
+      </c>
+      <c r="D32">
+        <v>2.29</v>
+      </c>
       <c r="E32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>31</v>
       </c>
+      <c r="C33">
+        <v>1199199029</v>
+      </c>
+      <c r="D33">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="E33">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>32</v>
       </c>
+      <c r="C34">
+        <v>1238297921</v>
+      </c>
+      <c r="D34">
+        <v>2.31</v>
+      </c>
       <c r="E34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>33</v>
       </c>
+      <c r="C35">
+        <v>1277396813</v>
+      </c>
+      <c r="D35">
+        <v>2.3199999999999998</v>
+      </c>
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>34</v>
       </c>
+      <c r="C36">
+        <v>1316495705</v>
+      </c>
+      <c r="D36">
+        <v>2.33</v>
+      </c>
       <c r="E36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>35</v>
       </c>
+      <c r="C37">
+        <v>1355594597</v>
+      </c>
+      <c r="D37">
+        <v>2.34</v>
+      </c>
       <c r="E37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>36</v>
       </c>
+      <c r="C38">
+        <v>1394693489</v>
+      </c>
+      <c r="D38">
+        <v>2.35</v>
+      </c>
       <c r="E38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>37</v>
       </c>
+      <c r="C39">
+        <v>1433792381</v>
+      </c>
+      <c r="D39">
+        <v>2.36</v>
+      </c>
       <c r="E39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>38</v>
       </c>
+      <c r="C40">
+        <v>1472891273</v>
+      </c>
+      <c r="D40">
+        <v>2.37</v>
+      </c>
       <c r="E40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>39</v>
       </c>
+      <c r="C41">
+        <v>1511990165</v>
+      </c>
+      <c r="D41">
+        <v>2.38</v>
+      </c>
       <c r="E41">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>40</v>
       </c>
+      <c r="C42">
+        <v>1551089057</v>
+      </c>
+      <c r="D42">
+        <v>2.39</v>
+      </c>
       <c r="E42">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>41</v>
       </c>
+      <c r="C43">
+        <v>1590187949</v>
+      </c>
+      <c r="D43">
+        <v>2.4</v>
+      </c>
       <c r="E43">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>42</v>
       </c>
+      <c r="C44">
+        <v>1629286841</v>
+      </c>
+      <c r="D44">
+        <v>2.41</v>
+      </c>
       <c r="E44">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>43</v>
       </c>
+      <c r="C45">
+        <v>1668385733</v>
+      </c>
+      <c r="D45">
+        <v>2.42</v>
+      </c>
       <c r="E45">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>44</v>
       </c>
+      <c r="C46">
+        <v>1707484625</v>
+      </c>
+      <c r="D46">
+        <v>2.4300000000000002</v>
+      </c>
       <c r="E46">
         <v>66</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>45</v>
       </c>
+      <c r="C47">
+        <v>1746583517</v>
+      </c>
+      <c r="D47">
+        <v>2.44</v>
+      </c>
       <c r="E47">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>46</v>
       </c>
+      <c r="C48">
+        <v>1785682409</v>
+      </c>
+      <c r="D48">
+        <v>2.4500000000000002</v>
+      </c>
       <c r="E48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>47</v>
       </c>
+      <c r="C49">
+        <v>1824781301</v>
+      </c>
+      <c r="D49">
+        <v>2.46</v>
+      </c>
       <c r="E49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>48</v>
       </c>
+      <c r="C50">
+        <v>1863880193</v>
+      </c>
+      <c r="D50">
+        <v>2.4700000000000002</v>
+      </c>
       <c r="E50">
         <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/medicijnenoverzicht.xlsx
+++ b/Assets/medicijnenoverzicht.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apo_ahmad\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E70A1E-99FF-400E-9931-4E033188B8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52019C16-B8EE-4A26-9E07-C20E9DB026B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{02F7379D-9181-D74E-95CA-175CD6679578}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02F7379D-9181-D74E-95CA-175CD6679578}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -555,22 +555,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D42448B-FEFA-014D-A93D-D8BD61CE4967}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -590,7 +590,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -607,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -624,7 +624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -675,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -709,7 +709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -726,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -743,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -760,7 +760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -828,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -845,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -862,7 +862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -879,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -896,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -930,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -947,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -964,7 +964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -981,7 +981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -998,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>26</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>27</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>28</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>29</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>31</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>32</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>33</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>34</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>35</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>36</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>37</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>38</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>39</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>40</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>41</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>42</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>43</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>44</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>45</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>46</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>47</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>48</v>
       </c>
